--- a/ExamToeicOnline-BackEnd-Clients/ExamToeicOnline-BackEnd-Clients/File/Bộ đề/Đề số 01.xlsx
+++ b/ExamToeicOnline-BackEnd-Clients/ExamToeicOnline-BackEnd-Clients/File/Bộ đề/Đề số 01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nam 4\HK I\TLCN\TLCN\ExamToeicOnline-BackEnd-Clients\ExamToeicOnline-BackEnd-Clients\File\Exam02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nam 4\HK I\TLCN\TLCN\ExamToeicOnline-BackEnd-Clients\ExamToeicOnline-BackEnd-Clients\File\Bộ đề\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9671E96F-6DAD-4C58-832C-07430E45F964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9E985D-9330-433C-9BF3-63565D3820D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part 1" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Part 5" sheetId="10" r:id="rId5"/>
     <sheet name="Part 6" sheetId="12" r:id="rId6"/>
     <sheet name="Part 7" sheetId="13" r:id="rId7"/>
+    <sheet name="answer" sheetId="14" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Part 4'!$A$1:$C$151</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="953">
   <si>
     <t>35. What does the woman say a town recently did?</t>
   </si>
@@ -2591,13 +2592,313 @@
   </si>
   <si>
     <t>Correct</t>
+  </si>
+  <si>
+    <t>1.B</t>
+  </si>
+  <si>
+    <t>2.C</t>
+  </si>
+  <si>
+    <t>3.D</t>
+  </si>
+  <si>
+    <t>4.A</t>
+  </si>
+  <si>
+    <t>5.D</t>
+  </si>
+  <si>
+    <t>6.C</t>
+  </si>
+  <si>
+    <t>7.A</t>
+  </si>
+  <si>
+    <t>8.C</t>
+  </si>
+  <si>
+    <t>9.B</t>
+  </si>
+  <si>
+    <t>10.C</t>
+  </si>
+  <si>
+    <t>11.C</t>
+  </si>
+  <si>
+    <t>12.C</t>
+  </si>
+  <si>
+    <t>13.B</t>
+  </si>
+  <si>
+    <t>14.A</t>
+  </si>
+  <si>
+    <t>15.A</t>
+  </si>
+  <si>
+    <t>16.C</t>
+  </si>
+  <si>
+    <t>17.B</t>
+  </si>
+  <si>
+    <t>18.C</t>
+  </si>
+  <si>
+    <t>19.A</t>
+  </si>
+  <si>
+    <t>20.A</t>
+  </si>
+  <si>
+    <t>21.B</t>
+  </si>
+  <si>
+    <t>22.B</t>
+  </si>
+  <si>
+    <t>23.B</t>
+  </si>
+  <si>
+    <t>24.A</t>
+  </si>
+  <si>
+    <t>25.C</t>
+  </si>
+  <si>
+    <t>26.B</t>
+  </si>
+  <si>
+    <t>27.A</t>
+  </si>
+  <si>
+    <t>28.C</t>
+  </si>
+  <si>
+    <t>29.C</t>
+  </si>
+  <si>
+    <t>30.C</t>
+  </si>
+  <si>
+    <t>31.B</t>
+  </si>
+  <si>
+    <t>32.C</t>
+  </si>
+  <si>
+    <t>33.B</t>
+  </si>
+  <si>
+    <t>34.D</t>
+  </si>
+  <si>
+    <t>35.D</t>
+  </si>
+  <si>
+    <t>36.B</t>
+  </si>
+  <si>
+    <t>37.A</t>
+  </si>
+  <si>
+    <t>38.B</t>
+  </si>
+  <si>
+    <t>39.B</t>
+  </si>
+  <si>
+    <t>40.C</t>
+  </si>
+  <si>
+    <t>41.C</t>
+  </si>
+  <si>
+    <t>42.B</t>
+  </si>
+  <si>
+    <t>43.A</t>
+  </si>
+  <si>
+    <t>44.D</t>
+  </si>
+  <si>
+    <t>45.C</t>
+  </si>
+  <si>
+    <t>46.B</t>
+  </si>
+  <si>
+    <t>47.D</t>
+  </si>
+  <si>
+    <t>48.C</t>
+  </si>
+  <si>
+    <t>49.A</t>
+  </si>
+  <si>
+    <t>50.A</t>
+  </si>
+  <si>
+    <t>51.B</t>
+  </si>
+  <si>
+    <t>52.C</t>
+  </si>
+  <si>
+    <t>53.D</t>
+  </si>
+  <si>
+    <t>54.C</t>
+  </si>
+  <si>
+    <t>55.A</t>
+  </si>
+  <si>
+    <t>56.B</t>
+  </si>
+  <si>
+    <t>57.C</t>
+  </si>
+  <si>
+    <t>58.D</t>
+  </si>
+  <si>
+    <t>59.D</t>
+  </si>
+  <si>
+    <t>60.C</t>
+  </si>
+  <si>
+    <t>61.A</t>
+  </si>
+  <si>
+    <t>62.B</t>
+  </si>
+  <si>
+    <t>63.D</t>
+  </si>
+  <si>
+    <t>64.D</t>
+  </si>
+  <si>
+    <t>65.B</t>
+  </si>
+  <si>
+    <t>66.C</t>
+  </si>
+  <si>
+    <t>67.A</t>
+  </si>
+  <si>
+    <t>68.C</t>
+  </si>
+  <si>
+    <t>69.B</t>
+  </si>
+  <si>
+    <t>70.B</t>
+  </si>
+  <si>
+    <t>71.B</t>
+  </si>
+  <si>
+    <t>72.C</t>
+  </si>
+  <si>
+    <t>73.B</t>
+  </si>
+  <si>
+    <t>74.D</t>
+  </si>
+  <si>
+    <t>75.C</t>
+  </si>
+  <si>
+    <t>76.A</t>
+  </si>
+  <si>
+    <t>77.B</t>
+  </si>
+  <si>
+    <t>78.A</t>
+  </si>
+  <si>
+    <t>79.C</t>
+  </si>
+  <si>
+    <t>80.D</t>
+  </si>
+  <si>
+    <t>81.C</t>
+  </si>
+  <si>
+    <t>82.A</t>
+  </si>
+  <si>
+    <t>83.B</t>
+  </si>
+  <si>
+    <t>84.A</t>
+  </si>
+  <si>
+    <t>85.A</t>
+  </si>
+  <si>
+    <t>86.A</t>
+  </si>
+  <si>
+    <t>87.B</t>
+  </si>
+  <si>
+    <t>88.D</t>
+  </si>
+  <si>
+    <t>89.A</t>
+  </si>
+  <si>
+    <t>90.C</t>
+  </si>
+  <si>
+    <t>91.B</t>
+  </si>
+  <si>
+    <t>92.B</t>
+  </si>
+  <si>
+    <t>93.D</t>
+  </si>
+  <si>
+    <t>94.A</t>
+  </si>
+  <si>
+    <t>95.C</t>
+  </si>
+  <si>
+    <t>96.B</t>
+  </si>
+  <si>
+    <t>97.D</t>
+  </si>
+  <si>
+    <t>98.B</t>
+  </si>
+  <si>
+    <t>99.C</t>
+  </si>
+  <si>
+    <t>100.D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2703,6 +3004,10 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.5"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2712,7 +3017,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2720,11 +3025,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2794,6 +3114,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3111,7 +3434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF89FB1-9491-4D31-A4C6-DCB09EA1A419}">
   <dimension ref="B1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -8692,4 +9015,359 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AA9F01-7A80-4C6A-A944-C40B861D12D7}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="24" t="s">
+        <v>853</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>854</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>855</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>856</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="24" t="s">
+        <v>858</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>859</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>860</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>861</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="24" t="s">
+        <v>863</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>864</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>865</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>866</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="24" t="s">
+        <v>868</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>869</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>870</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>871</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>874</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>875</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>876</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15">
+      <c r="A6" s="24" t="s">
+        <v>878</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>879</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>880</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15">
+      <c r="A7" s="24" t="s">
+        <v>883</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>884</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>885</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>886</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="24" t="s">
+        <v>888</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>889</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>891</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="24" t="s">
+        <v>893</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>894</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>895</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="24" t="s">
+        <v>898</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>899</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>900</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>901</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="24" t="s">
+        <v>903</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>904</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>905</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>906</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="24" t="s">
+        <v>908</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>909</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>910</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>914</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>915</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>916</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="24" t="s">
+        <v>918</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>919</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>920</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>921</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" s="24" t="s">
+        <v>923</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>924</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>925</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>926</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="24" t="s">
+        <v>928</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>929</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>930</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>931</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15">
+      <c r="A17" s="24" t="s">
+        <v>933</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>934</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>935</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>936</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15">
+      <c r="A18" s="24" t="s">
+        <v>938</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>939</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>940</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>941</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15">
+      <c r="A19" s="24" t="s">
+        <v>943</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>944</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>945</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>946</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15">
+      <c r="A20" s="24" t="s">
+        <v>948</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>949</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>950</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>951</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>952</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ExamToeicOnline-BackEnd-Clients/ExamToeicOnline-BackEnd-Clients/File/Bộ đề/Đề số 01.xlsx
+++ b/ExamToeicOnline-BackEnd-Clients/ExamToeicOnline-BackEnd-Clients/File/Bộ đề/Đề số 01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nam 4\HK I\TLCN\TLCN\ExamToeicOnline-BackEnd-Clients\ExamToeicOnline-BackEnd-Clients\File\Bộ đề\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9E985D-9330-433C-9BF3-63565D3820D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B6F791-0E50-4CCB-9DFF-AFCB5F278B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="1047">
   <si>
     <t>35. What does the woman say a town recently did?</t>
   </si>
@@ -2892,6 +2892,288 @@
   </si>
   <si>
     <t>100.D</t>
+  </si>
+  <si>
+    <t>101.A</t>
+  </si>
+  <si>
+    <t>102.A</t>
+  </si>
+  <si>
+    <t>103.D</t>
+  </si>
+  <si>
+    <t>104.D</t>
+  </si>
+  <si>
+    <t>105.A</t>
+  </si>
+  <si>
+    <t>106.A</t>
+  </si>
+  <si>
+    <t>107.B</t>
+  </si>
+  <si>
+    <t>108.C</t>
+  </si>
+  <si>
+    <t>109.D</t>
+  </si>
+  <si>
+    <t>110.B</t>
+  </si>
+  <si>
+    <t>111.C</t>
+  </si>
+  <si>
+    <t>112.B</t>
+  </si>
+  <si>
+    <t>113.B</t>
+  </si>
+  <si>
+    <t>114.A</t>
+  </si>
+  <si>
+    <t>115.D</t>
+  </si>
+  <si>
+    <t>116.D</t>
+  </si>
+  <si>
+    <t>117.C</t>
+  </si>
+  <si>
+    <t>118.D</t>
+  </si>
+  <si>
+    <t>119.C</t>
+  </si>
+  <si>
+    <t>120.C</t>
+  </si>
+  <si>
+    <t>121.A</t>
+  </si>
+  <si>
+    <t>122.B</t>
+  </si>
+  <si>
+    <t>123.B</t>
+  </si>
+  <si>
+    <t>124.C</t>
+  </si>
+  <si>
+    <t>125.D</t>
+  </si>
+  <si>
+    <t>126.A</t>
+  </si>
+  <si>
+    <t>127.A</t>
+  </si>
+  <si>
+    <t>128.D</t>
+  </si>
+  <si>
+    <t>129.A</t>
+  </si>
+  <si>
+    <t>130.B</t>
+  </si>
+  <si>
+    <t>131.B</t>
+  </si>
+  <si>
+    <t>132.C</t>
+  </si>
+  <si>
+    <t>133.A</t>
+  </si>
+  <si>
+    <t>134.D</t>
+  </si>
+  <si>
+    <t>135.D</t>
+  </si>
+  <si>
+    <t>136.C</t>
+  </si>
+  <si>
+    <t>137.A</t>
+  </si>
+  <si>
+    <t>138.B</t>
+  </si>
+  <si>
+    <t>139.A</t>
+  </si>
+  <si>
+    <t>140.C</t>
+  </si>
+  <si>
+    <t>141.A</t>
+  </si>
+  <si>
+    <t>144.A</t>
+  </si>
+  <si>
+    <t>145.D</t>
+  </si>
+  <si>
+    <t>146.D</t>
+  </si>
+  <si>
+    <t>147.C</t>
+  </si>
+  <si>
+    <t>148.A</t>
+  </si>
+  <si>
+    <t>149.C</t>
+  </si>
+  <si>
+    <t>150.C</t>
+  </si>
+  <si>
+    <t>151.B</t>
+  </si>
+  <si>
+    <t>152.D</t>
+  </si>
+  <si>
+    <t>153.B</t>
+  </si>
+  <si>
+    <t>154.B</t>
+  </si>
+  <si>
+    <t>155.D</t>
+  </si>
+  <si>
+    <t>156.C</t>
+  </si>
+  <si>
+    <t>157.B</t>
+  </si>
+  <si>
+    <t>158.A</t>
+  </si>
+  <si>
+    <t>160.B</t>
+  </si>
+  <si>
+    <t>161.C</t>
+  </si>
+  <si>
+    <t>163.D</t>
+  </si>
+  <si>
+    <t>164.D</t>
+  </si>
+  <si>
+    <t>165.B</t>
+  </si>
+  <si>
+    <t>166.C</t>
+  </si>
+  <si>
+    <t>167.A</t>
+  </si>
+  <si>
+    <t>168.D</t>
+  </si>
+  <si>
+    <t>169.C</t>
+  </si>
+  <si>
+    <t>170.A</t>
+  </si>
+  <si>
+    <t>171.B</t>
+  </si>
+  <si>
+    <t>172.D</t>
+  </si>
+  <si>
+    <t>173.B</t>
+  </si>
+  <si>
+    <t>174.A</t>
+  </si>
+  <si>
+    <t>176.C</t>
+  </si>
+  <si>
+    <t>177.A</t>
+  </si>
+  <si>
+    <t>178.D</t>
+  </si>
+  <si>
+    <t>179.B</t>
+  </si>
+  <si>
+    <t>180.D</t>
+  </si>
+  <si>
+    <t>181.A</t>
+  </si>
+  <si>
+    <t>182.A</t>
+  </si>
+  <si>
+    <t>183.C</t>
+  </si>
+  <si>
+    <t>184.C</t>
+  </si>
+  <si>
+    <t>185.B</t>
+  </si>
+  <si>
+    <t>186.C</t>
+  </si>
+  <si>
+    <t>187.C</t>
+  </si>
+  <si>
+    <t>188.B</t>
+  </si>
+  <si>
+    <t>189.C</t>
+  </si>
+  <si>
+    <t>190.A</t>
+  </si>
+  <si>
+    <t>191.A</t>
+  </si>
+  <si>
+    <t>193.D</t>
+  </si>
+  <si>
+    <t>194.D</t>
+  </si>
+  <si>
+    <t>195.C</t>
+  </si>
+  <si>
+    <t>196.B</t>
+  </si>
+  <si>
+    <t>197.A</t>
+  </si>
+  <si>
+    <t>198.D</t>
+  </si>
+  <si>
+    <t>199.C</t>
+  </si>
+  <si>
+    <t>200.B</t>
   </si>
 </sst>
 </file>
@@ -9019,10 +9301,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AA9F01-7A80-4C6A-A944-C40B861D12D7}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9367,6 +9649,346 @@
         <v>952</v>
       </c>
     </row>
+    <row r="21" spans="1:5" ht="15">
+      <c r="A21" s="24" t="s">
+        <v>953</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>954</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>955</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>956</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15">
+      <c r="A22" s="24" t="s">
+        <v>958</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>959</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>960</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>961</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15">
+      <c r="A23" s="24" t="s">
+        <v>963</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>964</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>965</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>966</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15">
+      <c r="A24" s="24" t="s">
+        <v>968</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>969</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>970</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>971</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15">
+      <c r="A25" s="24" t="s">
+        <v>973</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>975</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>976</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15">
+      <c r="A26" s="24" t="s">
+        <v>978</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>979</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>980</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>981</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15">
+      <c r="A27" s="24" t="s">
+        <v>983</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>984</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>985</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>986</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15">
+      <c r="A28" s="24" t="s">
+        <v>988</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>989</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>990</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>991</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15">
+      <c r="A29" s="24" t="s">
+        <v>993</v>
+      </c>
+      <c r="B29" s="24">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="C29" s="24">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>994</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15">
+      <c r="A30" s="24" t="s">
+        <v>996</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>997</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>998</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>999</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15">
+      <c r="A31" s="24" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15">
+      <c r="A32" s="24" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D32" s="24">
+        <v>159.80000000000001</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15">
+      <c r="A33" s="24" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B33" s="24">
+        <v>162.80000000000001</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15">
+      <c r="A34" s="24" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15">
+      <c r="A35" s="24" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E35" s="24">
+        <v>175.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15">
+      <c r="A36" s="24" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15">
+      <c r="A37" s="24" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15">
+      <c r="A38" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15">
+      <c r="A39" s="24" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B39" s="24">
+        <v>192.8</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15">
+      <c r="A40" s="24" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>1046</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
